--- a/data/inventaire_sauvegarde.xlsx
+++ b/data/inventaire_sauvegarde.xlsx
@@ -986,7 +986,7 @@
         </is>
       </c>
       <c r="P7" t="n">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="Q7" t="inlineStr">
         <is>
@@ -1691,7 +1691,7 @@
         </is>
       </c>
       <c r="P16" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="Q16" t="inlineStr">
         <is>

--- a/data/inventaire_sauvegarde.xlsx
+++ b/data/inventaire_sauvegarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q18"/>
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1774,8 +1774,10 @@
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
-      <c r="B18" t="n">
-        <v>1517492</v>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1517492</t>
+        </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1842,6 +1844,83 @@
       <c r="Q18" t="inlineStr">
         <is>
           <t>2025-05-26</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>123444</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>PROPRO</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>uuuuuuuuuuu</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mètre</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Barre de 6m</t>
+        </is>
+      </c>
+      <c r="F19" t="n">
+        <v>5</v>
+      </c>
+      <c r="G19" t="n">
+        <v>50</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Site principal</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Stockage</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>E3</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>FournX</t>
+        </is>
+      </c>
+      <c r="L19" t="n">
+        <v>45</v>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Profilés</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>Structure</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>2481023879</t>
+        </is>
+      </c>
+      <c r="P19" t="n">
+        <v>40</v>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>2025-05-28</t>
         </is>
       </c>
     </row>

--- a/data/inventaire_sauvegarde.xlsx
+++ b/data/inventaire_sauvegarde.xlsx
@@ -897,7 +897,7 @@
         </is>
       </c>
       <c r="P6" t="n">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="Q6" t="inlineStr">
         <is>

--- a/data/inventaire_sauvegarde.xlsx
+++ b/data/inventaire_sauvegarde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q20"/>
+  <dimension ref="A1:Q21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1971,6 +1971,81 @@
         </is>
       </c>
     </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2033555832</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Unité</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Unité</t>
+        </is>
+      </c>
+      <c r="F21" t="n">
+        <v>10</v>
+      </c>
+      <c r="G21" t="n">
+        <v>100</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Site principal</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>E2</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>FournX</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Général</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>Général</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>2033555832</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>2025-06-04</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
